--- a/Progress Reports/CS2 Project Progress Report #1.xlsx
+++ b/Progress Reports/CS2 Project Progress Report #1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUF\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD082A3C-53A5-409D-AFE9-405E97FDEB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD6B136-FF4E-46B1-95AC-06D2DFC55588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>Computer Science 2 Project</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Succesfully fixed numerous bugs</t>
   </si>
   <si>
-    <t>Made the music player</t>
-  </si>
-  <si>
     <t>Strong problem-solving and debugging skills</t>
   </si>
   <si>
@@ -146,6 +143,18 @@
   </si>
   <si>
     <t>Gradually improve visuals after core functionality is stable</t>
+  </si>
+  <si>
+    <t>(Requires user to add files in a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specific folder before being able to </t>
+  </si>
+  <si>
+    <t>play music)</t>
+  </si>
+  <si>
+    <t>Made the music player in the settings</t>
   </si>
 </sst>
 </file>
@@ -621,8 +630,8 @@
   </sheetPr>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -695,7 +704,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -703,21 +712,27 @@
         <v>16</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
@@ -752,26 +767,26 @@
     </row>
     <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="16"/>
     </row>
@@ -805,26 +820,26 @@
     </row>
     <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="16"/>
     </row>
@@ -854,32 +869,32 @@
     </row>
     <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
     </row>
     <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="16"/>
     </row>
     <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="16"/>
     </row>
